--- a/medicine/Mort/Columbarium_(film)/Columbarium_(film).xlsx
+++ b/medicine/Mort/Columbarium_(film)/Columbarium_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Columbarium est un film québécois réalisé par Steve Kerr sorti en 2012.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux frères, Mathieu, un financier névrosé, et Simon, un acteur qui rêve de se rendre à Hollywood, se rendent au chalet de leur père à la suite de la mort officiellement accidentelle de ce dernier. Marcel, l'exécuteur testamentaire, leur explique que pour avoir droit à l'héritage, les deux frères doivent rester une semaine sans sortir de la propriété du chalet et sans contacter personne. Durant cette période, ils doivent construire un columbarium qui hébergera les cendres du défunt père.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Columbarium
 Réalisation : Steve Kerr
@@ -558,14 +574,14 @@
 Production : Valérie Boucher, Steve Kerr
 Société de production : Valéa Productions
 Sociétés de distribution : FunFilm
-Budget : 0,3 million de dollars[1]
+Budget : 0,3 million de dollars
 Pays d'origine :  Canada
 Langue originale : français
 Format : couleur
 Genre : Drame, fantastique et thriller
 Durée : 86 minutes
 Dates de sortie :
-Canada : 5 août 2012 (première au festival FanTasia)[2]
+Canada : 5 août 2012 (première au festival FanTasia)
 Canada : 9 novembre 2012 (sortie en salle au Québec)
 Canada : 25 février 2014 (DVD)</t>
         </is>
@@ -595,7 +611,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>David Boutin : Mathieu Mackenzie
 Maxime Dumontier : Simon Mackenzie
